--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198577.7063972483</v>
+        <v>196032.529981767</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1373,16 +1373,16 @@
         <v>323.6959619980817</v>
       </c>
       <c r="D11" t="n">
-        <v>313.1061118477571</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>340.3534402993359</v>
       </c>
       <c r="F11" t="n">
-        <v>179.0867178587502</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>369.3447958805276</v>
       </c>
       <c r="H11" t="n">
         <v>253.0308346143946</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>43.72424655440381</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>209.4182421859761</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>307.6640389444871</v>
@@ -1534,7 +1534,7 @@
         <v>107.0385432452864</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>103.8441182500053</v>
@@ -1543,10 +1543,10 @@
         <v>124.4488784861023</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413949</v>
+        <v>79.33754824886877</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.77549063691217</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>210.5607135509021</v>
       </c>
       <c r="W13" t="n">
-        <v>171.0239894344083</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X13" t="n">
         <v>184.1327256161112</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>192.4499193638869</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>313.106111847757</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>340.3534402993359</v>
       </c>
       <c r="F14" t="n">
         <v>365.2991159687855</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>369.3447958805276</v>
       </c>
       <c r="H14" t="n">
         <v>253.0308346143945</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.61083201524991</v>
       </c>
       <c r="T14" t="n">
         <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>209.4182421859761</v>
       </c>
       <c r="V14" t="n">
-        <v>147.0401324064569</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W14" t="n">
         <v>307.6640389444871</v>
@@ -1673,7 +1673,7 @@
         <v>328.1541709055431</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831276</v>
+        <v>344.6610088831277</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090113</v>
+        <v>138.2550504090114</v>
       </c>
       <c r="C16" t="n">
         <v>125.6698913257019</v>
@@ -1771,19 +1771,19 @@
         <v>107.0385432452864</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>103.8441182500053</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861022</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.1780851413949</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691212</v>
+        <v>54.77549063691217</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712136</v>
+        <v>23.51468600459514</v>
       </c>
       <c r="S16" t="n">
-        <v>148.1920955585159</v>
+        <v>148.192095558516</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032432</v>
+        <v>177.9720195032433</v>
       </c>
       <c r="U16" t="n">
-        <v>244.6349084326869</v>
+        <v>244.634908432687</v>
       </c>
       <c r="V16" t="n">
-        <v>210.560713550902</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W16" t="n">
-        <v>219.4265839388919</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X16" t="n">
         <v>184.1327256161112</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0077235791688</v>
+        <v>177.0077235791689</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.0618795246038</v>
+        <v>332.0618795246039</v>
       </c>
       <c r="C17" t="n">
         <v>314.6009296321308</v>
@@ -1850,7 +1850,7 @@
         <v>304.0110794818062</v>
       </c>
       <c r="E17" t="n">
-        <v>161.8917792021109</v>
+        <v>331.2584079333851</v>
       </c>
       <c r="F17" t="n">
         <v>356.2040836028347</v>
@@ -1859,7 +1859,7 @@
         <v>360.2497635145767</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9358022484437</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.51579964929906</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>153.2460080007434</v>
       </c>
       <c r="U17" t="n">
         <v>200.3232098200252</v>
       </c>
       <c r="V17" t="n">
-        <v>277.0802963312581</v>
+        <v>219.9222915583433</v>
       </c>
       <c r="W17" t="n">
-        <v>298.5690065785362</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>319.0591385395923</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>335.5659765171769</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>116.5748589597511</v>
       </c>
       <c r="D19" t="n">
-        <v>97.94351087933558</v>
+        <v>97.94351087933561</v>
       </c>
       <c r="E19" t="n">
-        <v>95.76200050769239</v>
+        <v>95.76200050769242</v>
       </c>
       <c r="F19" t="n">
-        <v>94.74908588405447</v>
+        <v>94.74908588405449</v>
       </c>
       <c r="G19" t="n">
-        <v>115.3538461201514</v>
+        <v>115.3538461201515</v>
       </c>
       <c r="H19" t="n">
-        <v>94.083052775444</v>
+        <v>94.08305277544403</v>
       </c>
       <c r="I19" t="n">
-        <v>45.68045827096132</v>
+        <v>45.68045827096135</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.26019053117055</v>
+        <v>38.26019053117058</v>
       </c>
       <c r="S19" t="n">
         <v>139.0970631925651</v>
@@ -2059,10 +2059,10 @@
         <v>235.5398760667361</v>
       </c>
       <c r="V19" t="n">
-        <v>201.4656811849512</v>
+        <v>201.4656811849513</v>
       </c>
       <c r="W19" t="n">
-        <v>235.8510361977142</v>
+        <v>235.8510361977143</v>
       </c>
       <c r="X19" t="n">
         <v>175.0376932501604</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.0618795246038</v>
+        <v>332.0618795246039</v>
       </c>
       <c r="C20" t="n">
         <v>314.6009296321308</v>
       </c>
       <c r="D20" t="n">
-        <v>304.0110794818062</v>
+        <v>221.4817691424059</v>
       </c>
       <c r="E20" t="n">
-        <v>208.9689810213932</v>
+        <v>331.2584079333851</v>
       </c>
       <c r="F20" t="n">
         <v>356.2040836028347</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.51579964929906</v>
+        <v>58.51579964929908</v>
       </c>
       <c r="T20" t="n">
         <v>153.2460080007434</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>200.3232098200252</v>
       </c>
       <c r="V20" t="n">
-        <v>277.0802963312581</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>298.5690065785362</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>319.0591385395923</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>335.5659765171769</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>116.5748589597511</v>
       </c>
       <c r="D22" t="n">
-        <v>97.94351087933558</v>
+        <v>97.94351087933561</v>
       </c>
       <c r="E22" t="n">
-        <v>95.76200050769239</v>
+        <v>95.76200050769242</v>
       </c>
       <c r="F22" t="n">
-        <v>94.74908588405447</v>
+        <v>94.74908588405449</v>
       </c>
       <c r="G22" t="n">
-        <v>115.3538461201514</v>
+        <v>115.3538461201515</v>
       </c>
       <c r="H22" t="n">
-        <v>94.083052775444</v>
+        <v>94.08305277544403</v>
       </c>
       <c r="I22" t="n">
-        <v>45.68045827096132</v>
+        <v>45.68045827096135</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.26019053117055</v>
+        <v>38.26019053117058</v>
       </c>
       <c r="S22" t="n">
         <v>139.0970631925651</v>
@@ -2296,10 +2296,10 @@
         <v>235.5398760667361</v>
       </c>
       <c r="V22" t="n">
-        <v>201.4656811849512</v>
+        <v>201.4656811849513</v>
       </c>
       <c r="W22" t="n">
-        <v>235.8510361977142</v>
+        <v>235.8510361977143</v>
       </c>
       <c r="X22" t="n">
         <v>175.0376932501604</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.0618795246038</v>
+        <v>332.0618795246039</v>
       </c>
       <c r="C23" t="n">
         <v>314.6009296321308</v>
@@ -2324,7 +2324,7 @@
         <v>304.0110794818062</v>
       </c>
       <c r="E23" t="n">
-        <v>331.258407933385</v>
+        <v>331.2584079333851</v>
       </c>
       <c r="F23" t="n">
         <v>356.2040836028347</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.51579964929906</v>
+        <v>58.51579964929908</v>
       </c>
       <c r="T23" t="n">
         <v>153.2460080007434</v>
@@ -2375,16 +2375,16 @@
         <v>200.3232098200252</v>
       </c>
       <c r="V23" t="n">
-        <v>277.0802963312581</v>
+        <v>277.0802963312582</v>
       </c>
       <c r="W23" t="n">
-        <v>298.5690065785362</v>
+        <v>298.5690065785363</v>
       </c>
       <c r="X23" t="n">
         <v>319.0591385395923</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.5659765171768</v>
+        <v>335.5659765171769</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>116.5748589597511</v>
       </c>
       <c r="D25" t="n">
-        <v>97.94351087933558</v>
+        <v>97.94351087933561</v>
       </c>
       <c r="E25" t="n">
-        <v>95.76200050769239</v>
+        <v>95.76200050769242</v>
       </c>
       <c r="F25" t="n">
-        <v>94.74908588405447</v>
+        <v>94.74908588405449</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3538461201514</v>
+        <v>115.3538461201515</v>
       </c>
       <c r="H25" t="n">
-        <v>94.083052775444</v>
+        <v>94.08305277544403</v>
       </c>
       <c r="I25" t="n">
-        <v>45.68045827096132</v>
+        <v>45.68045827096135</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.26019053117055</v>
+        <v>38.26019053117058</v>
       </c>
       <c r="S25" t="n">
         <v>139.0970631925651</v>
@@ -2533,10 +2533,10 @@
         <v>235.5398760667361</v>
       </c>
       <c r="V25" t="n">
-        <v>201.4656811849512</v>
+        <v>201.4656811849513</v>
       </c>
       <c r="W25" t="n">
-        <v>235.8510361977142</v>
+        <v>235.8510361977143</v>
       </c>
       <c r="X25" t="n">
         <v>175.0376932501604</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3010,7 +3010,7 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179993</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958317</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572811</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124542</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145466</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1490.020264531497</v>
+        <v>1734.920347504027</v>
       </c>
       <c r="C11" t="n">
-        <v>1163.054646351616</v>
+        <v>1407.954729324147</v>
       </c>
       <c r="D11" t="n">
-        <v>846.7858465053969</v>
+        <v>1407.954729324147</v>
       </c>
       <c r="E11" t="n">
-        <v>502.9944926676839</v>
+        <v>1064.163375486434</v>
       </c>
       <c r="F11" t="n">
-        <v>322.098818062885</v>
+        <v>695.1743694573572</v>
       </c>
       <c r="G11" t="n">
-        <v>322.098818062885</v>
+        <v>322.0988180628849</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3281.439915998662</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3281.439915998662</v>
       </c>
       <c r="U11" t="n">
-        <v>3114.072243643539</v>
+        <v>3069.90633803303</v>
       </c>
       <c r="V11" t="n">
-        <v>2825.006255060499</v>
+        <v>3069.90633803303</v>
       </c>
       <c r="W11" t="n">
-        <v>2514.234498550916</v>
+        <v>2759.134581523447</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.765639050368</v>
+        <v>2427.665722022899</v>
       </c>
       <c r="Y11" t="n">
-        <v>1834.623205835087</v>
+        <v>2079.523288807618</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.3066106969654</v>
+        <v>667.6378438997358</v>
       </c>
       <c r="C13" t="n">
-        <v>615.3673265295897</v>
+        <v>540.6985597323601</v>
       </c>
       <c r="D13" t="n">
-        <v>507.2475858777852</v>
+        <v>432.5788190805556</v>
       </c>
       <c r="E13" t="n">
-        <v>401.3313910559233</v>
+        <v>432.5788190805556</v>
       </c>
       <c r="F13" t="n">
-        <v>296.4383423185442</v>
+        <v>327.6857703431765</v>
       </c>
       <c r="G13" t="n">
-        <v>170.7324044537944</v>
+        <v>201.9798324784268</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>121.8408948533068</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5203,7 +5203,7 @@
         <v>397.9442527783885</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020813</v>
+        <v>755.6652117020814</v>
       </c>
       <c r="M13" t="n">
         <v>1140.983417776827</v>
@@ -5221,13 +5221,13 @@
         <v>2256.583831890066</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408125</v>
+        <v>2208.750273408124</v>
       </c>
       <c r="S13" t="n">
         <v>2059.061287995482</v>
       </c>
       <c r="T13" t="n">
-        <v>1879.29157132554</v>
+        <v>1879.291571325539</v>
       </c>
       <c r="U13" t="n">
         <v>1632.185603211714</v>
@@ -5236,13 +5236,13 @@
         <v>1419.498013766359</v>
       </c>
       <c r="W13" t="n">
-        <v>1246.746509287159</v>
+        <v>1172.077742489929</v>
       </c>
       <c r="X13" t="n">
-        <v>1060.753857149673</v>
+        <v>986.0850903524431</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.9581767666739</v>
+        <v>807.2894099694443</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.113595955773</v>
+        <v>1407.954729324147</v>
       </c>
       <c r="C14" t="n">
-        <v>1351.147977775893</v>
+        <v>1407.954729324147</v>
       </c>
       <c r="D14" t="n">
-        <v>1034.879177929674</v>
+        <v>1407.954729324147</v>
       </c>
       <c r="E14" t="n">
-        <v>691.0878240919612</v>
+        <v>1064.163375486434</v>
       </c>
       <c r="F14" t="n">
-        <v>322.098818062885</v>
+        <v>695.1743694573573</v>
       </c>
       <c r="G14" t="n">
         <v>322.098818062885</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5279,7 +5279,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3161.624972753924</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U14" t="n">
-        <v>3161.624972753924</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V14" t="n">
-        <v>3013.099586484776</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W14" t="n">
-        <v>2702.327829975193</v>
+        <v>2281.959879983296</v>
       </c>
       <c r="X14" t="n">
-        <v>2370.858970474644</v>
+        <v>1950.491020482747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2022.716537259364</v>
+        <v>1602.348587267466</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>693.4151010964774</v>
+        <v>691.7191942962271</v>
       </c>
       <c r="C16" t="n">
-        <v>566.4758169291018</v>
+        <v>564.7799101288514</v>
       </c>
       <c r="D16" t="n">
-        <v>458.3560762772974</v>
+        <v>456.6601694770468</v>
       </c>
       <c r="E16" t="n">
-        <v>352.4398814554356</v>
+        <v>456.6601694770468</v>
       </c>
       <c r="F16" t="n">
-        <v>247.5468327180565</v>
+        <v>351.7671207396677</v>
       </c>
       <c r="G16" t="n">
-        <v>121.8408948533068</v>
+        <v>226.0611828749179</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>121.840894853307</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5437,49 +5437,49 @@
         <v>152.7959093543157</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783888</v>
+        <v>397.9442527783883</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020816</v>
+        <v>755.6652117020811</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.552954957889</v>
+        <v>1523.552954957888</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353499</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.812375262355</v>
+        <v>2137.812375262354</v>
       </c>
       <c r="Q16" t="n">
         <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408125</v>
+        <v>2232.831623804616</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995483</v>
+        <v>2083.142638391974</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.29157132554</v>
+        <v>1903.372921722031</v>
       </c>
       <c r="U16" t="n">
-        <v>1632.185603211715</v>
+        <v>1656.266953608206</v>
       </c>
       <c r="V16" t="n">
-        <v>1419.49801376636</v>
+        <v>1443.57936416285</v>
       </c>
       <c r="W16" t="n">
-        <v>1197.854999686671</v>
+        <v>1196.15909288642</v>
       </c>
       <c r="X16" t="n">
-        <v>1011.862347549185</v>
+        <v>1010.166440748934</v>
       </c>
       <c r="Y16" t="n">
-        <v>833.0666671661859</v>
+        <v>831.3707603659356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1824.990336312894</v>
+        <v>1749.667938820803</v>
       </c>
       <c r="C17" t="n">
-        <v>1507.211619512762</v>
+        <v>1431.889222020671</v>
       </c>
       <c r="D17" t="n">
-        <v>1200.129721046291</v>
+        <v>1124.8073235542</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.602671347189</v>
+        <v>790.2028710962355</v>
       </c>
       <c r="F17" t="n">
-        <v>676.8005666978609</v>
+        <v>430.4007664469074</v>
       </c>
       <c r="G17" t="n">
-        <v>312.9119166831367</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3266.498953276546</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3266.498953276546</v>
+        <v>3170.811874133673</v>
       </c>
       <c r="U17" t="n">
-        <v>3064.152276690662</v>
+        <v>2968.465197547789</v>
       </c>
       <c r="V17" t="n">
-        <v>2784.273189487371</v>
+        <v>2746.321468700978</v>
       </c>
       <c r="W17" t="n">
-        <v>2482.688334357536</v>
+        <v>2746.321468700978</v>
       </c>
       <c r="X17" t="n">
-        <v>2160.406376236736</v>
+        <v>2424.039510580177</v>
       </c>
       <c r="Y17" t="n">
-        <v>2160.406376236736</v>
+        <v>2085.083978744645</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.3270794598504</v>
+        <v>733.3270794598507</v>
       </c>
       <c r="C19" t="n">
-        <v>615.5746966722231</v>
+        <v>615.5746966722232</v>
       </c>
       <c r="D19" t="n">
-        <v>516.6418574001669</v>
+        <v>516.6418574001671</v>
       </c>
       <c r="E19" t="n">
-        <v>419.9125639580534</v>
+        <v>419.9125639580535</v>
       </c>
       <c r="F19" t="n">
-        <v>324.2064166004226</v>
+        <v>324.2064166004227</v>
       </c>
       <c r="G19" t="n">
-        <v>207.6873801154211</v>
+        <v>207.6873801154212</v>
       </c>
       <c r="H19" t="n">
         <v>112.6539934735585</v>
@@ -5674,22 +5674,22 @@
         <v>161.799991396607</v>
       </c>
       <c r="K19" t="n">
-        <v>415.9524168629714</v>
+        <v>415.9524168629713</v>
       </c>
       <c r="L19" t="n">
-        <v>782.6774578289555</v>
+        <v>732.5122153114673</v>
       </c>
       <c r="M19" t="n">
-        <v>1176.999745945993</v>
+        <v>1087.974212750041</v>
       </c>
       <c r="N19" t="n">
-        <v>1568.573365169345</v>
+        <v>1479.547831973394</v>
       </c>
       <c r="O19" t="n">
-        <v>1918.068206607247</v>
+        <v>1829.042673411295</v>
       </c>
       <c r="P19" t="n">
-        <v>2150.675707040906</v>
+        <v>2111.815416362443</v>
       </c>
       <c r="Q19" t="n">
         <v>2239.590955032445</v>
@@ -5701,10 +5701,10 @@
         <v>2060.442213897359</v>
       </c>
       <c r="T19" t="n">
-        <v>1889.859398607164</v>
+        <v>1889.859398607165</v>
       </c>
       <c r="U19" t="n">
-        <v>1651.940331873087</v>
+        <v>1651.940331873088</v>
       </c>
       <c r="V19" t="n">
         <v>1448.43964380748</v>
@@ -5716,7 +5716,7 @@
         <v>1033.400523153061</v>
       </c>
       <c r="Y19" t="n">
-        <v>863.7917441498106</v>
+        <v>863.7917441498108</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1872.543065423279</v>
+        <v>1912.704799334989</v>
       </c>
       <c r="C20" t="n">
-        <v>1554.764348623147</v>
+        <v>1594.926082534857</v>
       </c>
       <c r="D20" t="n">
-        <v>1247.682450156677</v>
+        <v>1371.207123805154</v>
       </c>
       <c r="E20" t="n">
         <v>1036.602671347189</v>
       </c>
       <c r="F20" t="n">
-        <v>676.8005666978606</v>
+        <v>676.8005666978612</v>
       </c>
       <c r="G20" t="n">
         <v>312.9119166831367</v>
@@ -5750,19 +5750,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5780,22 +5780,22 @@
         <v>3266.498953276546</v>
       </c>
       <c r="T20" t="n">
-        <v>3111.705005801047</v>
+        <v>3111.705005801048</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.705005801047</v>
+        <v>2909.358329215164</v>
       </c>
       <c r="V20" t="n">
-        <v>2831.825918597756</v>
+        <v>2909.358329215164</v>
       </c>
       <c r="W20" t="n">
-        <v>2530.241063467922</v>
+        <v>2909.358329215164</v>
       </c>
       <c r="X20" t="n">
-        <v>2207.959105347122</v>
+        <v>2587.076371094363</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.959105347122</v>
+        <v>2248.120839258831</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.3270794598504</v>
+        <v>733.3270794598507</v>
       </c>
       <c r="C22" t="n">
-        <v>615.5746966722231</v>
+        <v>615.5746966722232</v>
       </c>
       <c r="D22" t="n">
-        <v>516.6418574001669</v>
+        <v>516.6418574001671</v>
       </c>
       <c r="E22" t="n">
-        <v>419.9125639580534</v>
+        <v>419.9125639580535</v>
       </c>
       <c r="F22" t="n">
-        <v>324.2064166004226</v>
+        <v>324.2064166004227</v>
       </c>
       <c r="G22" t="n">
-        <v>207.6873801154211</v>
+        <v>207.6873801154212</v>
       </c>
       <c r="H22" t="n">
         <v>112.6539934735585</v>
@@ -5911,22 +5911,22 @@
         <v>161.799991396607</v>
       </c>
       <c r="K22" t="n">
-        <v>365.7871743454834</v>
+        <v>415.9524168629713</v>
       </c>
       <c r="L22" t="n">
-        <v>693.6519246330038</v>
+        <v>782.6774578289554</v>
       </c>
       <c r="M22" t="n">
-        <v>1087.974212750041</v>
+        <v>1138.139455267529</v>
       </c>
       <c r="N22" t="n">
-        <v>1479.547831973393</v>
+        <v>1479.547831973394</v>
       </c>
       <c r="O22" t="n">
         <v>1829.042673411295</v>
       </c>
       <c r="P22" t="n">
-        <v>2111.815416362442</v>
+        <v>2111.815416362443</v>
       </c>
       <c r="Q22" t="n">
         <v>2239.590955032445</v>
@@ -5938,10 +5938,10 @@
         <v>2060.442213897359</v>
       </c>
       <c r="T22" t="n">
-        <v>1889.859398607164</v>
+        <v>1889.859398607165</v>
       </c>
       <c r="U22" t="n">
-        <v>1651.940331873087</v>
+        <v>1651.940331873088</v>
       </c>
       <c r="V22" t="n">
         <v>1448.43964380748</v>
@@ -5953,7 +5953,7 @@
         <v>1033.400523153061</v>
       </c>
       <c r="Y22" t="n">
-        <v>863.7917441498106</v>
+        <v>863.7917441498108</v>
       </c>
     </row>
     <row r="23">
@@ -5972,43 +5972,43 @@
         <v>1384.7750193576</v>
       </c>
       <c r="E23" t="n">
-        <v>1050.170566899635</v>
+        <v>1050.170566899636</v>
       </c>
       <c r="F23" t="n">
         <v>690.3684622503074</v>
       </c>
       <c r="G23" t="n">
-        <v>326.4798122355834</v>
+        <v>326.4798122355835</v>
       </c>
       <c r="H23" t="n">
-        <v>80.08001198463022</v>
+        <v>80.08001198463023</v>
       </c>
       <c r="I23" t="n">
-        <v>80.08001198463022</v>
+        <v>80.08001198463023</v>
       </c>
       <c r="J23" t="n">
-        <v>436.3647919640087</v>
+        <v>268.9591429436557</v>
       </c>
       <c r="K23" t="n">
-        <v>770.1841656538552</v>
+        <v>602.7785166335022</v>
       </c>
       <c r="L23" t="n">
-        <v>1221.218378902264</v>
+        <v>1053.812729881911</v>
       </c>
       <c r="M23" t="n">
-        <v>1754.750283574188</v>
+        <v>2032.36303271174</v>
       </c>
       <c r="N23" t="n">
-        <v>2301.529100632971</v>
+        <v>2798.950333682511</v>
       </c>
       <c r="O23" t="n">
-        <v>2804.501571512308</v>
+        <v>3301.922804561848</v>
       </c>
       <c r="P23" t="n">
-        <v>3421.446074491468</v>
+        <v>3696.697170919027</v>
       </c>
       <c r="Q23" t="n">
-        <v>3879.924277000456</v>
+        <v>3944.983532674709</v>
       </c>
       <c r="R23" t="n">
         <v>4004.000599231511</v>
@@ -6017,7 +6017,7 @@
         <v>3944.893730898886</v>
       </c>
       <c r="T23" t="n">
-        <v>3790.099783423387</v>
+        <v>3790.099783423388</v>
       </c>
       <c r="U23" t="n">
         <v>3587.753106837504</v>
@@ -6057,13 +6057,13 @@
         <v>325.9522981126066</v>
       </c>
       <c r="G24" t="n">
-        <v>189.5891979452247</v>
+        <v>189.5891979452248</v>
       </c>
       <c r="H24" t="n">
-        <v>99.08730358309225</v>
+        <v>99.08730358309228</v>
       </c>
       <c r="I24" t="n">
-        <v>80.08001198463022</v>
+        <v>80.08001198463023</v>
       </c>
       <c r="J24" t="n">
         <v>173.7572814752476</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.8949750122972</v>
+        <v>746.8949750122974</v>
       </c>
       <c r="C25" t="n">
-        <v>629.1425922246699</v>
+        <v>629.14259222467</v>
       </c>
       <c r="D25" t="n">
-        <v>530.2097529526137</v>
+        <v>530.2097529526138</v>
       </c>
       <c r="E25" t="n">
-        <v>433.4804595105002</v>
+        <v>433.4804595105003</v>
       </c>
       <c r="F25" t="n">
-        <v>337.7743121528694</v>
+        <v>337.7743121528695</v>
       </c>
       <c r="G25" t="n">
-        <v>221.2552756678679</v>
+        <v>221.255275667868</v>
       </c>
       <c r="H25" t="n">
         <v>126.2218890260053</v>
       </c>
       <c r="I25" t="n">
-        <v>80.08001198463022</v>
+        <v>80.08001198463023</v>
       </c>
       <c r="J25" t="n">
         <v>175.3678869490538</v>
       </c>
       <c r="K25" t="n">
-        <v>429.5203124154182</v>
+        <v>379.3550698979302</v>
       </c>
       <c r="L25" t="n">
-        <v>757.3850627029385</v>
+        <v>746.0801108639143</v>
       </c>
       <c r="M25" t="n">
-        <v>1151.707350819976</v>
+        <v>1140.402398980951</v>
       </c>
       <c r="N25" t="n">
-        <v>1543.280970043328</v>
+        <v>1493.115727525841</v>
       </c>
       <c r="O25" t="n">
-        <v>1892.77581148123</v>
+        <v>1842.610568963742</v>
       </c>
       <c r="P25" t="n">
         <v>2125.383311914889</v>
@@ -6169,10 +6169,10 @@
         <v>2253.158850584892</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.512193482699</v>
+        <v>2214.5121934827</v>
       </c>
       <c r="S25" t="n">
-        <v>2074.010109449805</v>
+        <v>2074.010109449806</v>
       </c>
       <c r="T25" t="n">
         <v>1903.427294159611</v>
@@ -6190,7 +6190,7 @@
         <v>1046.968418705508</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.3596397022574</v>
+        <v>877.3596397022576</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,22 +6224,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>727.1188267890157</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.153040037424</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1711.684944709349</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2258.463761768131</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647468</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
         <v>3474.791320094414</v>
@@ -6254,10 +6254,10 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6415,19 +6415,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6452,46 +6452,46 @@
         <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6616,7 +6616,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6658,13 +6658,13 @@
         <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,49 +6686,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6783,7 +6783,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6838,31 +6838,31 @@
         <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6923,10 +6923,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6953,7 +6953,7 @@
         <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.269522603402</v>
@@ -6968,7 +6968,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,7 +6977,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.79051496434</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,10 +7093,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7123,22 +7123,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F38" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>727.1188267890157</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.153040037424</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.684944709349</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768131</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647468</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415471</v>
@@ -7327,7 +7327,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,31 +7336,31 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>282.5873354070237</v>
       </c>
       <c r="K41" t="n">
-        <v>1002.369923216575</v>
+        <v>937.3106675423232</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.404136464983</v>
+        <v>1388.344880790732</v>
       </c>
       <c r="M41" t="n">
-        <v>1986.936041136908</v>
+        <v>1921.876785462657</v>
       </c>
       <c r="N41" t="n">
-        <v>2533.71485819569</v>
+        <v>2468.655602521439</v>
       </c>
       <c r="O41" t="n">
-        <v>3036.687329075027</v>
+        <v>2971.628073400776</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899658</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>1092.155029011367</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L44" t="n">
-        <v>1543.189242259776</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2076.7211469317</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N44" t="n">
-        <v>2623.499963990483</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O44" t="n">
-        <v>3126.47243486982</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7740,25 +7740,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T45" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U45" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V45" t="n">
         <v>1794.243147664371</v>
@@ -7767,10 +7767,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697992</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899656</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257032</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913834</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415463</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7831,25 +7831,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>204.9758093342898</v>
+        <v>204.9758093342891</v>
       </c>
       <c r="L8" t="n">
-        <v>217.0161097528861</v>
+        <v>217.0161097528852</v>
       </c>
       <c r="M8" t="n">
-        <v>209.4829058762133</v>
+        <v>209.4829058762123</v>
       </c>
       <c r="N8" t="n">
-        <v>208.2121457970541</v>
+        <v>208.2121457970532</v>
       </c>
       <c r="O8" t="n">
-        <v>210.0787859308333</v>
+        <v>210.0787859308324</v>
       </c>
       <c r="P8" t="n">
-        <v>214.1468792646042</v>
+        <v>214.1468792646034</v>
       </c>
       <c r="Q8" t="n">
-        <v>209.4747279587406</v>
+        <v>209.47472795874</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>120.8313713882156</v>
+        <v>120.8313713882153</v>
       </c>
       <c r="K9" t="n">
-        <v>127.5757920412206</v>
+        <v>127.5757920412201</v>
       </c>
       <c r="L9" t="n">
-        <v>124.7509506187525</v>
+        <v>124.7509506187519</v>
       </c>
       <c r="M9" t="n">
-        <v>126.0260831566815</v>
+        <v>126.0260831566808</v>
       </c>
       <c r="N9" t="n">
-        <v>114.8074317919415</v>
+        <v>114.8074317919407</v>
       </c>
       <c r="O9" t="n">
-        <v>127.4706082116727</v>
+        <v>127.470608211672</v>
       </c>
       <c r="P9" t="n">
-        <v>121.8347508378852</v>
+        <v>121.8347508378846</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.8667351544937</v>
+        <v>131.8667351544933</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.9607951918619</v>
+        <v>126.9607951918615</v>
       </c>
       <c r="M10" t="n">
-        <v>130.5711623489676</v>
+        <v>130.5711623489672</v>
       </c>
       <c r="N10" t="n">
-        <v>119.5295770947139</v>
+        <v>119.5295770947135</v>
       </c>
       <c r="O10" t="n">
-        <v>130.9231825035963</v>
+        <v>130.9231825035959</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2819166079673</v>
+        <v>131.281916607967</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>222.0287716282719</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>224.4142794161433</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.736966642836</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>124.5185911550046</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431548</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>12.68816924374659</v>
       </c>
       <c r="K41" t="n">
-        <v>233.4533865158185</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>231.1066821161365</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.1839199353806</v>
+        <v>15.18391993538059</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>313.1061118477571</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>186.2123981100353</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805276</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524991</v>
+        <v>23.88658546084611</v>
       </c>
       <c r="T11" t="n">
         <v>162.3410403666942</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>23.84053689252609</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691217</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>73.92207912925679</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>148.7069925266677</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980817</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>313.1061118477571</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524985</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>139.135196290752</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>23.84053689252627</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>25.51948462477313</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>169.3666287312741</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>243.9358022484437</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.51579964929908</v>
       </c>
       <c r="T17" t="n">
-        <v>153.2460080007434</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>57.15800477291487</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>298.5690065785363</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.5659765171768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23972,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>82.5293103394003</v>
       </c>
       <c r="E20" t="n">
-        <v>122.2894269119918</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24023,19 +24023,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>200.3232098200252</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>277.0802963312582</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>298.5690065785363</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.5659765171768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>972317.9552711559</v>
+        <v>972317.9552711562</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972317.9552711562</v>
+        <v>972317.955271156</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>989178.8685934859</v>
+        <v>989178.8685934857</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389156.2608905933</v>
+        <v>389156.2608905932</v>
       </c>
       <c r="C2" t="n">
         <v>389156.2608905933</v>
       </c>
       <c r="D2" t="n">
-        <v>389160.7533832836</v>
+        <v>389160.7533832837</v>
       </c>
       <c r="E2" t="n">
+        <v>358827.590590656</v>
+      </c>
+      <c r="F2" t="n">
         <v>358827.5905906559</v>
       </c>
-      <c r="F2" t="n">
-        <v>358827.590590656</v>
-      </c>
       <c r="G2" t="n">
-        <v>365109.1073185829</v>
+        <v>365109.1073185831</v>
       </c>
       <c r="H2" t="n">
-        <v>365109.107318583</v>
+        <v>365109.1073185824</v>
       </c>
       <c r="I2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="J2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="K2" t="n">
+        <v>389994.8406855348</v>
+      </c>
+      <c r="L2" t="n">
+        <v>389994.8406855347</v>
+      </c>
+      <c r="M2" t="n">
+        <v>389994.8406855349</v>
+      </c>
+      <c r="N2" t="n">
         <v>389994.8406855346</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>389994.8406855348</v>
       </c>
-      <c r="M2" t="n">
-        <v>389994.8406855347</v>
-      </c>
-      <c r="N2" t="n">
-        <v>389994.8406855349</v>
-      </c>
-      <c r="O2" t="n">
-        <v>389994.8406855347</v>
-      </c>
       <c r="P2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25312.06338852318</v>
+        <v>25312.06338852434</v>
       </c>
       <c r="E3" t="n">
-        <v>1133284.321149372</v>
+        <v>1133284.32114937</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7276.02589276064</v>
+        <v>7276.025892760663</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45099.85441502753</v>
+        <v>45099.85441502756</v>
       </c>
       <c r="J3" t="n">
         <v>33793.44926224771</v>
       </c>
       <c r="K3" t="n">
-        <v>7.389644451905042e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7276.025892760612</v>
+        <v>7276.025892760646</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30304.08340211343</v>
+        <v>30304.08340211339</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>418002.9401975755</v>
+        <v>418002.9401975752</v>
       </c>
       <c r="E4" t="n">
         <v>51785.79169101205</v>
       </c>
       <c r="F4" t="n">
-        <v>51785.79169101211</v>
+        <v>51785.79169101205</v>
       </c>
       <c r="G4" t="n">
-        <v>59328.4588170585</v>
+        <v>59328.45881705848</v>
       </c>
       <c r="H4" t="n">
-        <v>59328.4588170585</v>
+        <v>59328.45881705849</v>
       </c>
       <c r="I4" t="n">
-        <v>79454.17877615493</v>
+        <v>79454.17877615489</v>
       </c>
       <c r="J4" t="n">
         <v>78703.96570883345</v>
       </c>
       <c r="K4" t="n">
-        <v>78703.96570883349</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="L4" t="n">
-        <v>78703.96570883346</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883344</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="P4" t="n">
         <v>78703.96570883348</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34271.91803061347</v>
+        <v>34271.9180306135</v>
       </c>
       <c r="E5" t="n">
         <v>77801.6714704734</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.67147047342</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="G5" t="n">
         <v>78566.28174644653</v>
@@ -26488,7 +26488,7 @@
         <v>78566.28174644653</v>
       </c>
       <c r="I5" t="n">
-        <v>88877.88236630609</v>
+        <v>88877.8823663061</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69994.47827551022</v>
+        <v>-69998.89185337845</v>
       </c>
       <c r="C6" t="n">
-        <v>-69994.47827551028</v>
+        <v>-69998.89185337839</v>
       </c>
       <c r="D6" t="n">
-        <v>-88426.16823342859</v>
+        <v>-88430.55816659912</v>
       </c>
       <c r="E6" t="n">
-        <v>-904044.1937202011</v>
+        <v>-904208.2318785939</v>
       </c>
       <c r="F6" t="n">
-        <v>229240.1274291705</v>
+        <v>229076.0892707763</v>
       </c>
       <c r="G6" t="n">
-        <v>219938.3408623172</v>
+        <v>219807.3633182808</v>
       </c>
       <c r="H6" t="n">
-        <v>227214.3667550779</v>
+        <v>227083.3892110408</v>
       </c>
       <c r="I6" t="n">
         <v>176562.9251280463</v>
@@ -26546,22 +26546,22 @@
         <v>188119.4840396474</v>
       </c>
       <c r="K6" t="n">
+        <v>221912.9333018952</v>
+      </c>
+      <c r="L6" t="n">
+        <v>214636.9074091345</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14724.36500982234</v>
+      </c>
+      <c r="N6" t="n">
         <v>221912.933301895</v>
       </c>
-      <c r="L6" t="n">
-        <v>214636.9074091346</v>
-      </c>
-      <c r="M6" t="n">
-        <v>14724.36500982216</v>
-      </c>
-      <c r="N6" t="n">
-        <v>221912.9333018953</v>
-      </c>
       <c r="O6" t="n">
-        <v>191608.8498997816</v>
+        <v>191608.8498997817</v>
       </c>
       <c r="P6" t="n">
-        <v>221912.9333018951</v>
+        <v>221912.933301895</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>41.57692977292592</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="G2" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="H2" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="I2" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.5558729639207</v>
+        <v>29.55587296392205</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26814,22 +26814,22 @@
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>41.57692977292592</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.0950323659508</v>
+        <v>9.095032365950829</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.8801042526417</v>
+        <v>37.88010425264174</v>
       </c>
       <c r="K2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950765</v>
+        <v>9.095032365950807</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264179</v>
+        <v>37.88010425264173</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.5558729639207</v>
+        <v>29.55587296392205</v>
       </c>
       <c r="E3" t="n">
-        <v>1060.220827629378</v>
+        <v>1060.220827629376</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>169.5986944055849</v>
+        <v>169.598694405585</v>
       </c>
       <c r="J4" t="n">
-        <v>13.33631140073669</v>
+        <v>13.33631140073658</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>41.57692977292592</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.0950323659508</v>
+        <v>9.095032365950829</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.8801042526417</v>
+        <v>37.88010425264174</v>
       </c>
       <c r="P2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27871,10 +27871,10 @@
         <v>338.2579615771068</v>
       </c>
       <c r="I8" t="n">
-        <v>205.8951748269223</v>
+        <v>205.8951748269221</v>
       </c>
       <c r="J8" t="n">
-        <v>1.864795794927835</v>
+        <v>1.864795794927373</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>142.4054431468989</v>
+        <v>142.4054431468986</v>
       </c>
       <c r="S8" t="n">
-        <v>206.3125139875907</v>
+        <v>206.3125139875906</v>
       </c>
       <c r="T8" t="n">
         <v>222.5757256087562</v>
@@ -27950,7 +27950,7 @@
         <v>111.6214628000195</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20782527814359</v>
+        <v>87.20782527814349</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.21073096700859</v>
+        <v>96.2107309670084</v>
       </c>
       <c r="S9" t="n">
         <v>170.5023303302321</v>
@@ -28029,13 +28029,13 @@
         <v>161.7533094950016</v>
       </c>
       <c r="I10" t="n">
-        <v>153.8476744721001</v>
+        <v>153.8476744721</v>
       </c>
       <c r="J10" t="n">
-        <v>89.59104857502669</v>
+        <v>89.59104857502652</v>
       </c>
       <c r="K10" t="n">
-        <v>16.07729417868767</v>
+        <v>16.07729417868738</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.69910643414237</v>
+        <v>81.69910643414215</v>
       </c>
       <c r="R10" t="n">
-        <v>174.8969430545539</v>
+        <v>174.8969430545538</v>
       </c>
       <c r="S10" t="n">
-        <v>223.087768389893</v>
+        <v>223.0877683898929</v>
       </c>
       <c r="T10" t="n">
         <v>227.717863849707</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292592</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="C17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="D17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="E17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="F17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="G17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="H17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="T17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="U17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="V17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="W17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="X17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="C19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="D19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="E19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="F19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="G19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="H19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="I19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="J19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="K19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="L19" t="n">
-        <v>50.67196213887677</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>50.67196213887677</v>
+        <v>11.41914327174237</v>
       </c>
       <c r="N19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="O19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.41914327174146</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="R19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="S19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="T19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="U19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="V19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="W19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="X19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="C20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="D20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="E20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="F20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="G20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="H20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="T20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="U20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="V20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="W20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="X20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="C22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="D22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="E22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="F22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="G22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="H22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="I22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="J22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="L22" t="n">
-        <v>11.41914327174169</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="M22" t="n">
-        <v>50.67196213887677</v>
+        <v>11.41914327174226</v>
       </c>
       <c r="N22" t="n">
-        <v>50.67196213887677</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="P22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="R22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="S22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="T22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="U22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="V22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="W22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="X22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="C23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="D23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="E23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="F23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="G23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="H23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="T23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="U23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="V23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="W23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="X23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="C25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="D25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="E25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="F25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="G25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="H25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="I25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="J25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="K25" t="n">
-        <v>50.67196213887677</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>11.41914327174163</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="M25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="N25" t="n">
-        <v>50.67196213887677</v>
+        <v>11.41914327174203</v>
       </c>
       <c r="O25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="R25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="S25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="T25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="U25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="V25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="W25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="X25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.67196213887677</v>
+        <v>50.67196213887674</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.118817579754455</v>
+        <v>0.1188175797544604</v>
       </c>
       <c r="H8" t="n">
-        <v>1.216840538660312</v>
+        <v>1.216840538660368</v>
       </c>
       <c r="I8" t="n">
-        <v>4.58071474348363</v>
+        <v>4.58071474348384</v>
       </c>
       <c r="J8" t="n">
-        <v>10.08449355968468</v>
+        <v>10.08449355968514</v>
       </c>
       <c r="K8" t="n">
-        <v>15.11404171069077</v>
+        <v>15.11404171069146</v>
       </c>
       <c r="L8" t="n">
-        <v>18.75030521710117</v>
+        <v>18.75030521710203</v>
       </c>
       <c r="M8" t="n">
-        <v>20.86332735105946</v>
+        <v>20.86332735106041</v>
       </c>
       <c r="N8" t="n">
-        <v>21.20091779953681</v>
+        <v>21.20091779953778</v>
       </c>
       <c r="O8" t="n">
-        <v>20.01942549085344</v>
+        <v>20.01942549085436</v>
       </c>
       <c r="P8" t="n">
-        <v>17.08611649066533</v>
+        <v>17.08611649066611</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.83096191570891</v>
+        <v>12.8309619157095</v>
       </c>
       <c r="R8" t="n">
-        <v>7.463674794250789</v>
+        <v>7.463674794251131</v>
       </c>
       <c r="S8" t="n">
-        <v>2.707555598654646</v>
+        <v>2.707555598654769</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5201239553751269</v>
+        <v>0.5201239553751508</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009505406380356397</v>
+        <v>0.009505406380356832</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06357300977145207</v>
+        <v>0.06357300977145498</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6139814364769188</v>
+        <v>0.6139814364769469</v>
       </c>
       <c r="I9" t="n">
-        <v>2.188807573271486</v>
+        <v>2.188807573271586</v>
       </c>
       <c r="J9" t="n">
-        <v>6.006255278451094</v>
+        <v>6.006255278451368</v>
       </c>
       <c r="K9" t="n">
-        <v>10.26564693313838</v>
+        <v>10.26564693313885</v>
       </c>
       <c r="L9" t="n">
-        <v>13.80342916112165</v>
+        <v>13.80342916112228</v>
       </c>
       <c r="M9" t="n">
-        <v>16.10795076533678</v>
+        <v>16.10795076533752</v>
       </c>
       <c r="N9" t="n">
-        <v>16.53428029139183</v>
+        <v>16.53428029139258</v>
       </c>
       <c r="O9" t="n">
-        <v>15.12563623277176</v>
+        <v>15.12563623277245</v>
       </c>
       <c r="P9" t="n">
-        <v>12.13965657644509</v>
+        <v>12.13965657644565</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.115038931527813</v>
+        <v>8.115038931528185</v>
       </c>
       <c r="R9" t="n">
-        <v>3.947103185634543</v>
+        <v>3.947103185634724</v>
       </c>
       <c r="S9" t="n">
-        <v>1.180840773605699</v>
+        <v>1.180840773605753</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2562438420173879</v>
+        <v>0.2562438420173996</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004182434853385006</v>
+        <v>0.004182434853385198</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0532974758365783</v>
+        <v>0.05329747583658075</v>
       </c>
       <c r="H10" t="n">
-        <v>0.473863012437942</v>
+        <v>0.4738630124379637</v>
       </c>
       <c r="I10" t="n">
-        <v>1.602800455158192</v>
+        <v>1.602800455158265</v>
       </c>
       <c r="J10" t="n">
-        <v>3.768131541646086</v>
+        <v>3.768131541646258</v>
       </c>
       <c r="K10" t="n">
-        <v>6.192197647195187</v>
+        <v>6.192197647195471</v>
       </c>
       <c r="L10" t="n">
-        <v>7.923881089376379</v>
+        <v>7.923881089376742</v>
       </c>
       <c r="M10" t="n">
-        <v>8.354621598637451</v>
+        <v>8.354621598637832</v>
       </c>
       <c r="N10" t="n">
-        <v>8.155967370519301</v>
+        <v>8.155967370519676</v>
       </c>
       <c r="O10" t="n">
-        <v>7.533355948246544</v>
+        <v>7.533355948246888</v>
       </c>
       <c r="P10" t="n">
-        <v>6.446087441180341</v>
+        <v>6.446087441180635</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.462936817552025</v>
+        <v>4.462936817552229</v>
       </c>
       <c r="R10" t="n">
-        <v>2.396448322615602</v>
+        <v>2.396448322615712</v>
       </c>
       <c r="S10" t="n">
-        <v>0.928829647079278</v>
+        <v>0.9288296470793205</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2277255785744709</v>
+        <v>0.2277255785744813</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002907135045631547</v>
+        <v>0.00290713504563168</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32330,10 +32330,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -33041,10 +33041,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35504,7 +35504,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.1553463859922</v>
+        <v>87.15534638599215</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172456</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L16" t="n">
         <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N16" t="n">
         <v>386.433875940466</v>
@@ -35820,7 +35820,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q16" t="n">
         <v>119.9711683108196</v>
@@ -35978,10 +35978,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.250378751943</v>
+        <v>96.25037875194297</v>
       </c>
       <c r="K19" t="n">
-        <v>256.7196216831964</v>
+        <v>256.7196216831963</v>
       </c>
       <c r="L19" t="n">
-        <v>370.4293343090749</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>398.3053415323606</v>
+        <v>359.0525226652262</v>
       </c>
       <c r="N19" t="n">
         <v>395.5289083064168</v>
       </c>
       <c r="O19" t="n">
-        <v>353.0250923615166</v>
+        <v>353.0250923615165</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>285.6290332839872</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.81338180963512</v>
+        <v>129.0662006767704</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.250378751943</v>
+        <v>96.25037875194297</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>256.7196216831963</v>
       </c>
       <c r="L22" t="n">
-        <v>331.1765154419398</v>
+        <v>370.4293343090749</v>
       </c>
       <c r="M22" t="n">
-        <v>398.3053415323606</v>
+        <v>359.0525226652261</v>
       </c>
       <c r="N22" t="n">
-        <v>395.5289083064168</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>353.0250923615166</v>
+        <v>353.0250923615165</v>
       </c>
       <c r="P22" t="n">
         <v>285.6290332839872</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,22 +36364,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>774.3306070411834</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>623.1762656355152</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>96.250378751943</v>
+        <v>96.25037875194297</v>
       </c>
       <c r="K25" t="n">
-        <v>256.7196216831964</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>331.1765154419397</v>
+        <v>370.4293343090749</v>
       </c>
       <c r="M25" t="n">
         <v>398.3053415323606</v>
       </c>
       <c r="N25" t="n">
-        <v>395.5289083064168</v>
+        <v>356.2760894392821</v>
       </c>
       <c r="O25" t="n">
-        <v>353.0250923615166</v>
+        <v>353.0250923615165</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>285.6290332839872</v>
       </c>
       <c r="Q25" t="n">
         <v>129.0662006767704</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>461.7098777104051</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36610,7 +36610,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36689,10 +36689,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37321,10 +37321,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5312714465555</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>461.7098777104051</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37558,10 +37558,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>416.1845670468743</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120755</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>203.4751702124591</v>
       </c>
       <c r="K41" t="n">
-        <v>570.644673071219</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316589</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412298</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>629.8686683355083</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
